--- a/medicine/Enfance/Les_Chasseurs_de_dinosaures/Les_Chasseurs_de_dinosaures.xlsx
+++ b/medicine/Enfance/Les_Chasseurs_de_dinosaures/Les_Chasseurs_de_dinosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Chasseurs de dinosaures est un roman d'Henri Vernes, publié en 1957 par les éditions Gérard et C° dans la collection Marabout Junior (#94). C'est le 20e roman de la série Bob Morane. 
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Membres de la première équipe partie au crétacé
 Frank Reeves : Américain, milliardaire, ami de Bob Morane.
@@ -558,7 +572,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Paris, Bob Morane, Bill Ballantine et Aristide Clairembart sont prévenus par son épouse Carlotta que leur ami Frank Reeves a disparu. Les trois compères se rendent en Californie, dernier endroit où a été vu Frank (chapitre 1). Accompagnés par l'agent du FBI Michael Spring, ils découvrent dans un hangar du professeur Hunter une étrange machine. Un homme ensanglanté gît dans la machine. Bill Balantine, par mégarde, fait démarrer la machine (chapitres 2 et 3). 
 Ils se retrouvent propulsés dans le crétacé, à environ 100 millions d'années dans le passé. Frank, le professeur Hunter et deux autres personnes se sont en effet rendus à l'ère Secondaire afin d'y chasser des dinosaures ! Les quatre amis sont attaqués par un tyrannosaure et constatent assez rapidement qu'ils n'ont pas l'équipement adéquat pour survivre longtemps dans les forêts touffues du Secondaire. Ils découvrent sur le sol un paquet de cigarettes ayant appartenu à Frank, prouvant que celui-ci était bien là quelque temps auparavant. Bob Morane propose à ses collègues de retourner au XXe siècle et de revenir le rejoindre munis de l'équipement. Pendant ce temps, Bob fera des recherches sommaires dans les environs pour déterminer s'il peut retrouver les membres de la première équipe (chapitres 4 et 5).
@@ -593,7 +609,9 @@
           <t>Le fonctionnement de la machine temporelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « C'est ici que se place ma découverte. Après bien des calculs, bien des recherches, j'acquis la certitude que, pour pouvoir se déplacer dans le temps, il n'était pas indispensable d'atteindre une vitesse égale à celle de la lumière, mais qu'il suffisait de faire vibrer cet objet suivant les mêmes fréquences que celles de cette lumière. Ce fut donc sur ce principe que je construisis ma machine, en me basant sur les fréquences du courant électrique que j'amplifiai grâce à un système extrêmement complexe de transformateurs et de relais. »
@@ -625,9 +643,11 @@
           <t>Adaptation en bande-dessinée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman a été adapté par Henri Vernes et Cora en bande dessinée, parue en 1984 aux éditions Le Lombard[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a été adapté par Henri Vernes et Cora en bande dessinée, parue en 1984 aux éditions Le Lombard.
 </t>
         </is>
       </c>
